--- a/Manutenção Village/Proposta DCO.xlsx
+++ b/Manutenção Village/Proposta DCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProjetosRCR\Village\Manutenção Village\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A85750-70B0-4590-88E4-5ABB41403F7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA0E130-9D37-4396-ACBD-BD3E3BCC9422}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3310EA05-842E-4CF8-AA1E-C6EA7217A2A7}"/>
   </bookViews>
@@ -240,6 +240,16 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,21 +266,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -586,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD685307-EAD0-45FE-900E-DB52D1E51CD6}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,22 +602,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="12"/>
       <c r="I3">
         <v>26</v>
       </c>
@@ -630,10 +630,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="J4" s="2">
         <f>J3/549</f>
         <v>168.65327868852458</v>
@@ -644,10 +644,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
       <c r="J5">
         <f>45*549</f>
         <v>24705</v>
@@ -658,46 +658,46 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -708,46 +708,46 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -758,40 +758,40 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="15"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -805,7 +805,7 @@
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="5">
         <f>B29+B22+B13</f>
         <v>2407357</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="5">
         <f>B30/26</f>
         <v>92590.653846153844</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="5">
         <f>B30/549</f>
         <v>4384.9854280510017</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="5">
         <f>B33/26</f>
         <v>168.6532856942693</v>
       </c>
@@ -841,17 +841,23 @@
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="8">
         <f>B36*549</f>
         <v>24705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>880*5</f>
+        <v>4400</v>
       </c>
     </row>
   </sheetData>
@@ -865,22 +871,22 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
